--- a/AAA-Luban-Excel/text_Translate.xlsx
+++ b/AAA-Luban-Excel/text_Translate.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="241">
   <si>
     <t>##var</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>Ja</t>
-  </si>
-  <si>
-    <t>Notes</t>
   </si>
   <si>
     <t>##type</t>
@@ -105,9 +102,6 @@
     <t>三ネラールウォ|夕ー</t>
   </si>
   <si>
-    <t>■■■■■■■■■</t>
-  </si>
-  <si>
     <t>item_SceneObjects 702001-703999;</t>
   </si>
   <si>
@@ -281,6 +275,9 @@
   </si>
   <si>
     <t>癫狂3</t>
+  </si>
+  <si>
+    <t>■■■■■■■■■</t>
   </si>
   <si>
     <t>cha_PassiveSkills 732001-733999；</t>
@@ -944,12 +941,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1270,7 +1273,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1294,16 +1297,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1312,89 +1315,89 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1402,6 +1405,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1934,8 +1943,8 @@
   <sheetPr/>
   <dimension ref="A1:G270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70909090909091" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1962,66 +1971,60 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" ht="70" spans="1:6">
@@ -2030,16 +2033,16 @@
         <v>700000</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2048,13 +2051,13 @@
         <v>700001</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -2080,20 +2083,14 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1"/>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>702000</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>25</v>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2102,7 +2099,7 @@
         <v>702001</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2114,7 +2111,7 @@
         <v>702002</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -2126,7 +2123,7 @@
         <v>702003</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2138,7 +2135,7 @@
         <v>702004</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2150,7 +2147,7 @@
         <v>702005</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2162,7 +2159,7 @@
         <v>702006</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2174,7 +2171,7 @@
         <v>702007</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2186,7 +2183,7 @@
         <v>702008</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2198,7 +2195,7 @@
         <v>702009</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -2210,7 +2207,7 @@
         <v>702010</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -2222,7 +2219,7 @@
         <v>702011</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2234,7 +2231,7 @@
         <v>702012</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2242,20 +2239,14 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1"/>
-      <c r="B22" s="1">
+      <c r="B22" s="3">
         <v>704000</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>38</v>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2264,7 +2255,7 @@
         <v>704001</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2276,7 +2267,7 @@
         <v>704002</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -2288,7 +2279,7 @@
         <v>704003</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -2300,7 +2291,7 @@
         <v>704004</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -2312,7 +2303,7 @@
         <v>704005</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -2324,7 +2315,7 @@
         <v>704006</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -2335,17 +2326,11 @@
       <c r="B29" s="1">
         <v>706000</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2353,8 +2338,8 @@
       <c r="B30" s="1">
         <v>706001</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>46</v>
+      <c r="C30" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -2365,8 +2350,8 @@
       <c r="B31" s="1">
         <v>706002</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>47</v>
+      <c r="C31" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -2377,8 +2362,8 @@
       <c r="B32" s="1">
         <v>706003</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>48</v>
+      <c r="C32" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -2389,8 +2374,8 @@
       <c r="B33" s="1">
         <v>706004</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>49</v>
+      <c r="C33" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -2401,8 +2386,8 @@
       <c r="B34" s="1">
         <v>706005</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>50</v>
+      <c r="C34" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -2414,16 +2399,16 @@
         <v>710000</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2432,7 +2417,7 @@
         <v>710001</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -2444,7 +2429,7 @@
         <v>710002</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -2456,7 +2441,7 @@
         <v>710003</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -2468,7 +2453,7 @@
         <v>710004</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -2480,7 +2465,7 @@
         <v>710005</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2492,7 +2477,7 @@
         <v>710006</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2504,16 +2489,16 @@
         <v>720000</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2522,12 +2507,12 @@
         <v>720001</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" ht="42" spans="1:6">
@@ -2536,16 +2521,16 @@
         <v>730000</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2554,7 +2539,7 @@
         <v>730001</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -2566,7 +2551,7 @@
         <v>730002</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -2578,7 +2563,7 @@
         <v>730003</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -2590,7 +2575,7 @@
         <v>730004</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2602,7 +2587,7 @@
         <v>730005</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -2614,7 +2599,7 @@
         <v>730006</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -2626,7 +2611,7 @@
         <v>730007</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -2638,7 +2623,7 @@
         <v>730008</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -2650,7 +2635,7 @@
         <v>730009</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -2662,7 +2647,7 @@
         <v>730010</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -2674,7 +2659,7 @@
         <v>730011</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -2686,7 +2671,7 @@
         <v>730012</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -2698,16 +2683,16 @@
         <v>732000</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2716,7 +2701,7 @@
         <v>732001</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -2728,7 +2713,7 @@
         <v>732002</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -2740,16 +2725,16 @@
         <v>740000</v>
       </c>
       <c r="C60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="61" ht="74" customHeight="1" spans="1:6">
@@ -2758,7 +2743,7 @@
         <v>740001</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -2770,7 +2755,7 @@
         <v>740002</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -2782,16 +2767,16 @@
         <v>750000</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="F63" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2800,7 +2785,7 @@
         <v>750001</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -2812,7 +2797,7 @@
         <v>750002</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -2824,7 +2809,7 @@
         <v>750003</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -2836,7 +2821,7 @@
         <v>750004</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -2848,7 +2833,7 @@
         <v>750005</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -2860,7 +2845,7 @@
         <v>750006</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -2872,7 +2857,7 @@
         <v>750007</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -2884,7 +2869,7 @@
         <v>750008</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -2896,7 +2881,7 @@
         <v>750009</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -2908,7 +2893,7 @@
         <v>750010</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -2920,7 +2905,7 @@
         <v>750011</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -2932,16 +2917,16 @@
         <v>752000</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2949,8 +2934,8 @@
       <c r="B76" s="1">
         <v>752001</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>108</v>
+      <c r="C76" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -2961,8 +2946,8 @@
       <c r="B77" s="1">
         <v>752002</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>108</v>
+      <c r="C77" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -2973,8 +2958,8 @@
       <c r="B78" s="1">
         <v>752003</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>108</v>
+      <c r="C78" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -2985,8 +2970,8 @@
       <c r="B79" s="1">
         <v>752004</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>108</v>
+      <c r="C79" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -2997,8 +2982,8 @@
       <c r="B80" s="1">
         <v>752005</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>108</v>
+      <c r="C80" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -3009,8 +2994,8 @@
       <c r="B81" s="1">
         <v>752006</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>108</v>
+      <c r="C81" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -3021,8 +3006,8 @@
       <c r="B82" s="1">
         <v>752007</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>108</v>
+      <c r="C82" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -3033,8 +3018,8 @@
       <c r="B83" s="1">
         <v>752008</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>108</v>
+      <c r="C83" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -3045,8 +3030,8 @@
       <c r="B84" s="1">
         <v>752009</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>108</v>
+      <c r="C84" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -3057,8 +3042,8 @@
       <c r="B85" s="1">
         <v>752010</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>108</v>
+      <c r="C85" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -3069,8 +3054,8 @@
       <c r="B86" s="1">
         <v>752011</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>108</v>
+      <c r="C86" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -3081,8 +3066,8 @@
       <c r="B87" s="1">
         <v>752012</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>108</v>
+      <c r="C87" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -3093,8 +3078,8 @@
       <c r="B88" s="1">
         <v>752013</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>108</v>
+      <c r="C88" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -3105,8 +3090,8 @@
       <c r="B89" s="1">
         <v>752014</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>108</v>
+      <c r="C89" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -3117,8 +3102,8 @@
       <c r="B90" s="1">
         <v>752015</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>108</v>
+      <c r="C90" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -3129,8 +3114,8 @@
       <c r="B91" s="1">
         <v>752016</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>108</v>
+      <c r="C91" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -3141,8 +3126,8 @@
       <c r="B92" s="1">
         <v>752017</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>108</v>
+      <c r="C92" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -3153,8 +3138,8 @@
       <c r="B93" s="1">
         <v>752018</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>108</v>
+      <c r="C93" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -3165,8 +3150,8 @@
       <c r="B94" s="1">
         <v>752019</v>
       </c>
-      <c r="C94" s="3" t="s">
-        <v>108</v>
+      <c r="C94" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -3177,8 +3162,8 @@
       <c r="B95" s="1">
         <v>752020</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>108</v>
+      <c r="C95" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -3189,8 +3174,8 @@
       <c r="B96" s="1">
         <v>752021</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>108</v>
+      <c r="C96" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -3201,8 +3186,8 @@
       <c r="B97" s="1">
         <v>752022</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>108</v>
+      <c r="C97" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -3213,8 +3198,8 @@
       <c r="B98" s="1">
         <v>752023</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>108</v>
+      <c r="C98" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -3225,8 +3210,8 @@
       <c r="B99" s="1">
         <v>752024</v>
       </c>
-      <c r="C99" s="3" t="s">
-        <v>108</v>
+      <c r="C99" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -3237,8 +3222,8 @@
       <c r="B100" s="1">
         <v>752025</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>108</v>
+      <c r="C100" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -3249,8 +3234,8 @@
       <c r="B101" s="1">
         <v>752026</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>108</v>
+      <c r="C101" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -3261,8 +3246,8 @@
       <c r="B102" s="1">
         <v>752027</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>108</v>
+      <c r="C102" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -3273,8 +3258,8 @@
       <c r="B103" s="1">
         <v>752028</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>108</v>
+      <c r="C103" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -3285,8 +3270,8 @@
       <c r="B104" s="1">
         <v>752029</v>
       </c>
-      <c r="C104" s="3" t="s">
-        <v>108</v>
+      <c r="C104" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -3297,8 +3282,8 @@
       <c r="B105" s="1">
         <v>752030</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>108</v>
+      <c r="C105" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -3309,8 +3294,8 @@
       <c r="B106" s="1">
         <v>752031</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>108</v>
+      <c r="C106" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -3321,8 +3306,8 @@
       <c r="B107" s="1">
         <v>752032</v>
       </c>
-      <c r="C107" s="3" t="s">
-        <v>108</v>
+      <c r="C107" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -3333,8 +3318,8 @@
       <c r="B108" s="1">
         <v>752033</v>
       </c>
-      <c r="C108" s="3" t="s">
-        <v>108</v>
+      <c r="C108" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -3345,8 +3330,8 @@
       <c r="B109" s="1">
         <v>752034</v>
       </c>
-      <c r="C109" s="3" t="s">
-        <v>108</v>
+      <c r="C109" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -3357,8 +3342,8 @@
       <c r="B110" s="1">
         <v>752035</v>
       </c>
-      <c r="C110" s="3" t="s">
-        <v>108</v>
+      <c r="C110" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -3369,8 +3354,8 @@
       <c r="B111" s="1">
         <v>752036</v>
       </c>
-      <c r="C111" s="3" t="s">
-        <v>108</v>
+      <c r="C111" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -3381,8 +3366,8 @@
       <c r="B112" s="1">
         <v>752037</v>
       </c>
-      <c r="C112" s="3" t="s">
-        <v>108</v>
+      <c r="C112" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -3393,8 +3378,8 @@
       <c r="B113" s="1">
         <v>752038</v>
       </c>
-      <c r="C113" s="3" t="s">
-        <v>108</v>
+      <c r="C113" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -3405,8 +3390,8 @@
       <c r="B114" s="1">
         <v>752039</v>
       </c>
-      <c r="C114" s="3" t="s">
-        <v>108</v>
+      <c r="C114" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -3417,8 +3402,8 @@
       <c r="B115" s="1">
         <v>752040</v>
       </c>
-      <c r="C115" s="3" t="s">
-        <v>108</v>
+      <c r="C115" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -3429,8 +3414,8 @@
       <c r="B116" s="1">
         <v>752041</v>
       </c>
-      <c r="C116" s="3" t="s">
-        <v>108</v>
+      <c r="C116" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -3441,8 +3426,8 @@
       <c r="B117" s="1">
         <v>752042</v>
       </c>
-      <c r="C117" s="3" t="s">
-        <v>108</v>
+      <c r="C117" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -3453,8 +3438,8 @@
       <c r="B118" s="1">
         <v>752043</v>
       </c>
-      <c r="C118" s="3" t="s">
-        <v>108</v>
+      <c r="C118" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -3465,8 +3450,8 @@
       <c r="B119" s="1">
         <v>752044</v>
       </c>
-      <c r="C119" s="3" t="s">
-        <v>108</v>
+      <c r="C119" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -3477,8 +3462,8 @@
       <c r="B120" s="1">
         <v>752045</v>
       </c>
-      <c r="C120" s="3" t="s">
-        <v>108</v>
+      <c r="C120" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -3500,16 +3485,16 @@
         <v>760000</v>
       </c>
       <c r="C122" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="E122" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="F122" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3528,16 +3513,16 @@
         <v>800000</v>
       </c>
       <c r="C124" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="E124" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="F124" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="G124" s="2"/>
     </row>
@@ -3547,13 +3532,13 @@
         <v>800001</v>
       </c>
       <c r="C125" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="E125" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="F125" s="1"/>
     </row>
@@ -3583,16 +3568,16 @@
         <v>802000</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3721,16 +3706,16 @@
         <v>804000</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="142" ht="84" spans="1:6">
@@ -3739,7 +3724,7 @@
         <v>804001</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -3751,7 +3736,7 @@
         <v>804002</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -3763,12 +3748,12 @@
         <v>804003</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3777,7 +3762,7 @@
         <v>804004</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -3789,12 +3774,12 @@
         <v>804005</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="147" ht="42" spans="1:6">
@@ -3803,7 +3788,7 @@
         <v>804006</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -3817,16 +3802,16 @@
         <v>806000</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3895,16 +3880,16 @@
         <v>810000</v>
       </c>
       <c r="C155" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D155" s="2" t="s">
+      <c r="E155" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E155" s="2" t="s">
+      <c r="F155" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3969,22 +3954,22 @@
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
     </row>
-    <row r="162" ht="28" spans="1:7">
+    <row r="162" spans="1:7">
       <c r="A162" s="1"/>
       <c r="B162" s="1">
         <v>820000</v>
       </c>
       <c r="C162" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="E162" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E162" s="2" t="s">
+      <c r="F162" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="G162" s="1"/>
     </row>
@@ -4005,16 +3990,16 @@
         <v>830000</v>
       </c>
       <c r="C164" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D164" s="2" t="s">
+      <c r="E164" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E164" s="2" t="s">
+      <c r="F164" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="G164" s="1"/>
     </row>
@@ -4024,7 +4009,7 @@
         <v>830001</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -4039,7 +4024,7 @@
         <v>830002</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -4052,7 +4037,7 @@
         <v>830003</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -4065,7 +4050,7 @@
         <v>830004</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -4078,7 +4063,7 @@
         <v>830005</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -4093,7 +4078,7 @@
         <v>830006</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -4106,7 +4091,7 @@
         <v>830007</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -4119,12 +4104,12 @@
         <v>830008</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
       <c r="F172" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G172" s="1"/>
     </row>
@@ -4134,7 +4119,7 @@
         <v>830009</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -4149,7 +4134,7 @@
         <v>830010</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -4162,7 +4147,7 @@
         <v>830011</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -4175,7 +4160,7 @@
         <v>830012</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -4188,13 +4173,13 @@
         <v>832000</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
@@ -4205,7 +4190,7 @@
         <v>832001</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -4218,7 +4203,7 @@
         <v>832002</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -4231,16 +4216,16 @@
         <v>840000</v>
       </c>
       <c r="C180" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D180" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D180" s="2" t="s">
+      <c r="E180" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E180" s="2" t="s">
+      <c r="F180" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="G180" s="1"/>
     </row>
@@ -4250,12 +4235,12 @@
         <v>840001</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
       <c r="F181" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G181" s="1"/>
     </row>
@@ -4265,12 +4250,12 @@
         <v>840002</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
       <c r="F182" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G182" s="1"/>
     </row>
@@ -4280,16 +4265,16 @@
         <v>850000</v>
       </c>
       <c r="C183" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D183" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D183" s="2" t="s">
+      <c r="E183" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E183" s="2" t="s">
+      <c r="F183" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="G183" s="1"/>
     </row>
@@ -4299,7 +4284,7 @@
         <v>850001</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -4312,7 +4297,7 @@
         <v>850002</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -4325,7 +4310,7 @@
         <v>850003</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -4338,7 +4323,7 @@
         <v>850004</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -4351,7 +4336,7 @@
         <v>850005</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -4364,7 +4349,7 @@
         <v>850006</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -4377,7 +4362,7 @@
         <v>850007</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -4390,7 +4375,7 @@
         <v>850008</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -4403,7 +4388,7 @@
         <v>850009</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -4416,7 +4401,7 @@
         <v>850010</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -4429,7 +4414,7 @@
         <v>850011</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -4453,7 +4438,7 @@
         <v>852001</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -4466,7 +4451,7 @@
         <v>852002</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -4479,7 +4464,7 @@
         <v>852003</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -4492,7 +4477,7 @@
         <v>852004</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -4505,7 +4490,7 @@
         <v>852005</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -4518,7 +4503,7 @@
         <v>852006</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -4531,7 +4516,7 @@
         <v>852007</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -4544,7 +4529,7 @@
         <v>852008</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -4557,7 +4542,7 @@
         <v>852009</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -4570,7 +4555,7 @@
         <v>852010</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -4583,7 +4568,7 @@
         <v>852011</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -4596,7 +4581,7 @@
         <v>852012</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -4609,7 +4594,7 @@
         <v>852013</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -4622,7 +4607,7 @@
         <v>852014</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -4635,7 +4620,7 @@
         <v>852015</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -4648,7 +4633,7 @@
         <v>852016</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -4661,7 +4646,7 @@
         <v>852017</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -4674,7 +4659,7 @@
         <v>852018</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -4687,7 +4672,7 @@
         <v>852019</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -4700,7 +4685,7 @@
         <v>852020</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -4713,7 +4698,7 @@
         <v>852021</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -4726,7 +4711,7 @@
         <v>852022</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -4739,7 +4724,7 @@
         <v>852023</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -4752,7 +4737,7 @@
         <v>852024</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -4765,7 +4750,7 @@
         <v>852025</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -4778,7 +4763,7 @@
         <v>852026</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -4791,7 +4776,7 @@
         <v>852027</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -4804,7 +4789,7 @@
         <v>852028</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -4817,7 +4802,7 @@
         <v>852029</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -4830,7 +4815,7 @@
         <v>852030</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -4843,7 +4828,7 @@
         <v>852031</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -4856,7 +4841,7 @@
         <v>852032</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -4869,7 +4854,7 @@
         <v>852033</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -4882,7 +4867,7 @@
         <v>852034</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -4895,7 +4880,7 @@
         <v>852035</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -4908,7 +4893,7 @@
         <v>852036</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -4921,7 +4906,7 @@
         <v>852037</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -4934,7 +4919,7 @@
         <v>852038</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -4947,7 +4932,7 @@
         <v>852039</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -4960,7 +4945,7 @@
         <v>852040</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -4973,7 +4958,7 @@
         <v>852041</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -4986,7 +4971,7 @@
         <v>852042</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -4999,7 +4984,7 @@
         <v>852043</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -5012,7 +4997,7 @@
         <v>852044</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -5025,7 +5010,7 @@
         <v>852045</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -5038,16 +5023,16 @@
         <v>860000</v>
       </c>
       <c r="C241" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D241" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D241" s="2" t="s">
+      <c r="E241" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E241" s="2" t="s">
+      <c r="F241" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="F241" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="G241" s="1"/>
     </row>
@@ -5057,7 +5042,7 @@
         <v>860001</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -5070,7 +5055,7 @@
         <v>860002</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -5083,7 +5068,7 @@
         <v>860003</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -5096,7 +5081,7 @@
         <v>860004</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -5109,7 +5094,7 @@
         <v>860005</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -5122,7 +5107,7 @@
         <v>860006</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -5135,7 +5120,7 @@
         <v>860007</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -5148,7 +5133,7 @@
         <v>860008</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -5161,7 +5146,7 @@
         <v>860009</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -5174,16 +5159,16 @@
         <v>865000</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G251" s="1"/>
     </row>
@@ -5193,7 +5178,7 @@
         <v>865001</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -5205,7 +5190,7 @@
         <v>865002</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -5217,7 +5202,7 @@
         <v>865003</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
